--- a/src/main/kotlin/files/Inventory.xlsx
+++ b/src/main/kotlin/files/Inventory.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -20,28 +20,76 @@
     <t>Product Name</t>
   </si>
   <si>
-    <t>Quantity in Stock</t>
-  </si>
-  <si>
-    <t>Price per Unit</t>
-  </si>
-  <si>
-    <t>Total Value</t>
-  </si>
-  <si>
-    <t>Item A</t>
-  </si>
-  <si>
-    <t>Item B</t>
-  </si>
-  <si>
-    <t>Item C</t>
-  </si>
-  <si>
-    <t>Item D</t>
-  </si>
-  <si>
-    <t>Item E</t>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Teclado</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Gabinete</t>
+  </si>
+  <si>
+    <t>Fonte de Alimentação</t>
+  </si>
+  <si>
+    <t>Placa-Mãe</t>
+  </si>
+  <si>
+    <t>Processador</t>
+  </si>
+  <si>
+    <t>Memória RAM</t>
+  </si>
+  <si>
+    <t>HD Externo</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Placa de Vídeo</t>
+  </si>
+  <si>
+    <t>Webcam</t>
+  </si>
+  <si>
+    <t>Impressora</t>
+  </si>
+  <si>
+    <t>Scanner</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>Cadeira de Escritório</t>
+  </si>
+  <si>
+    <t>Mesa de Escritório</t>
+  </si>
+  <si>
+    <t>Luminária</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -86,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -111,87 +159,325 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>19.99</v>
+        <v>50.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>199.89999999999998</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>34.5</v>
+        <v>900.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>172.5</v>
+        <v>4500.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>9.99</v>
+        <v>300.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>119.88</v>
+        <v>2100.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>25.0</v>
+        <v>250.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>175.0</v>
+        <v>3750.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>500.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>1200.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>9600.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>400.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>4800.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>350.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>3150.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>600.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>8400.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>1500.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>9000.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>2200.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>700.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>2800.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>650.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>1950.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C15" t="n" s="0">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="C6" t="n" s="0">
+      <c r="D15" t="n" s="0">
+        <v>3500.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>17500.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>1800.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>12600.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>2500.0</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>25000.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>850.0</v>
+      </c>
+      <c r="E18" t="n" s="0">
+        <v>6800.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>1200.0</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>7200.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="0">
         <v>20.0</v>
       </c>
-      <c r="D6" t="n" s="0">
-        <v>5.75</v>
-      </c>
-      <c r="E6" t="n" s="0">
-        <v>115.0</v>
+      <c r="B20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>2250.0</v>
       </c>
     </row>
   </sheetData>
